--- a/文件/迷迭香Rosemary小组完整记录表.xlsx
+++ b/文件/迷迭香Rosemary小组完整记录表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code\GitHub Repository\WZBC-2022202301-Web-Design\期末大作业  R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code\GitHub Repository\RoseMaryMDX.github.io\文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368D0410-1694-4EE9-B956-6EF76BF75341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B96DD8B-DE5F-40CA-9BDA-D9A81B2F008D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22848" yWindow="4764" windowWidth="15672" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2412" windowWidth="15672" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小组成员信息登记表" sheetId="1" r:id="rId1"/>
@@ -3042,16 +3042,37 @@
     <xf numFmtId="177" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3066,28 +3087,7 @@
     <xf numFmtId="177" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4740,39 +4740,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="60"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4814,16 +4814,16 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="54">
         <v>22116101235</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="57" t="s">
         <v>58</v>
       </c>
       <c r="E4" s="42">
@@ -4847,18 +4847,18 @@
       <c r="K4" s="42">
         <v>19</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="60">
         <f>AVERAGE(D9:K9)</f>
         <v>94.714285714285708</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="47"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="41">
         <v>20</v>
       </c>
@@ -4880,15 +4880,15 @@
       <c r="K5" s="41">
         <v>19</v>
       </c>
-      <c r="L5" s="53"/>
+      <c r="L5" s="60"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="41">
         <v>17</v>
       </c>
@@ -4910,15 +4910,15 @@
       <c r="K6" s="41">
         <v>19</v>
       </c>
-      <c r="L6" s="53"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="41">
         <v>30</v>
       </c>
@@ -4940,15 +4940,15 @@
       <c r="K7" s="41">
         <v>29</v>
       </c>
-      <c r="L7" s="53"/>
+      <c r="L7" s="60"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="41">
         <v>7</v>
       </c>
@@ -4970,15 +4970,15 @@
       <c r="K8" s="41">
         <v>9</v>
       </c>
-      <c r="L8" s="53"/>
+      <c r="L8" s="60"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="41">
         <f>SUM(E4:E8)</f>
         <v>91</v>
@@ -5007,13 +5007,13 @@
         <f>SUM(K4:K8)</f>
         <v>95</v>
       </c>
-      <c r="L9" s="53"/>
+      <c r="L9" s="60"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="54">
         <v>22116101252</v>
       </c>
       <c r="C10" s="41" t="s">
@@ -5022,7 +5022,7 @@
       <c r="D10" s="42">
         <v>20</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="57" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="42">
@@ -5043,21 +5043,21 @@
       <c r="K10" s="42">
         <v>19</v>
       </c>
-      <c r="L10" s="53">
+      <c r="L10" s="60">
         <f>AVERAGE(D15:K15)</f>
         <v>94.571428571428569</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="41" t="s">
         <v>158</v>
       </c>
       <c r="D11" s="41">
         <v>17</v>
       </c>
-      <c r="E11" s="51"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="41">
         <v>18</v>
       </c>
@@ -5076,18 +5076,18 @@
       <c r="K11" s="41">
         <v>18</v>
       </c>
-      <c r="L11" s="53"/>
+      <c r="L11" s="60"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="41" t="s">
         <v>163</v>
       </c>
       <c r="D12" s="41">
         <v>20</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="41">
         <v>20</v>
       </c>
@@ -5106,18 +5106,18 @@
       <c r="K12" s="41">
         <v>19</v>
       </c>
-      <c r="L12" s="53"/>
+      <c r="L12" s="60"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="41" t="s">
         <v>160</v>
       </c>
       <c r="D13" s="41">
         <v>27</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="41">
         <v>28</v>
       </c>
@@ -5136,18 +5136,18 @@
       <c r="K13" s="41">
         <v>28</v>
       </c>
-      <c r="L13" s="53"/>
+      <c r="L13" s="60"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="41" t="s">
         <v>161</v>
       </c>
       <c r="D14" s="41">
         <v>10</v>
       </c>
-      <c r="E14" s="51"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="41">
         <v>10</v>
       </c>
@@ -5166,11 +5166,11 @@
       <c r="K14" s="41">
         <v>9</v>
       </c>
-      <c r="L14" s="53"/>
+      <c r="L14" s="60"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="41" t="s">
         <v>162</v>
       </c>
@@ -5178,7 +5178,7 @@
         <f>SUM(D10:D14)</f>
         <v>94</v>
       </c>
-      <c r="E15" s="52"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="41">
         <f t="shared" ref="F15:K15" si="1">SUM(F10:F14)</f>
         <v>96</v>
@@ -5203,13 +5203,13 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="L15" s="53"/>
+      <c r="L15" s="60"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="54">
         <v>22116101250</v>
       </c>
       <c r="C16" s="41" t="s">
@@ -5221,7 +5221,7 @@
       <c r="E16" s="42">
         <v>18</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="57" t="s">
         <v>58</v>
       </c>
       <c r="G16" s="42">
@@ -5239,14 +5239,14 @@
       <c r="K16" s="42">
         <v>17</v>
       </c>
-      <c r="L16" s="53">
+      <c r="L16" s="60">
         <f>AVERAGE(D21:K21)</f>
         <v>94.714285714285708</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="41" t="s">
         <v>158</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="E17" s="41">
         <v>20</v>
       </c>
-      <c r="F17" s="51"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="41">
         <v>17</v>
       </c>
@@ -5272,11 +5272,11 @@
       <c r="K17" s="41">
         <v>20</v>
       </c>
-      <c r="L17" s="53"/>
+      <c r="L17" s="60"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="41" t="s">
         <v>163</v>
       </c>
@@ -5286,7 +5286,7 @@
       <c r="E18" s="41">
         <v>18</v>
       </c>
-      <c r="F18" s="51"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="41">
         <v>20</v>
       </c>
@@ -5302,11 +5302,11 @@
       <c r="K18" s="41">
         <v>19</v>
       </c>
-      <c r="L18" s="53"/>
+      <c r="L18" s="60"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="41" t="s">
         <v>160</v>
       </c>
@@ -5316,7 +5316,7 @@
       <c r="E19" s="41">
         <v>30</v>
       </c>
-      <c r="F19" s="51"/>
+      <c r="F19" s="58"/>
       <c r="G19" s="41">
         <v>29</v>
       </c>
@@ -5332,11 +5332,11 @@
       <c r="K19" s="41">
         <v>30</v>
       </c>
-      <c r="L19" s="53"/>
+      <c r="L19" s="60"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="41" t="s">
         <v>161</v>
       </c>
@@ -5346,7 +5346,7 @@
       <c r="E20" s="41">
         <v>8</v>
       </c>
-      <c r="F20" s="51"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="41">
         <v>10</v>
       </c>
@@ -5362,11 +5362,11 @@
       <c r="K20" s="41">
         <v>7</v>
       </c>
-      <c r="L20" s="53"/>
+      <c r="L20" s="60"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="41" t="s">
         <v>162</v>
       </c>
@@ -5378,7 +5378,7 @@
         <f t="shared" ref="E21" si="2">SUM(E16:E20)</f>
         <v>94</v>
       </c>
-      <c r="F21" s="52"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="41">
         <f t="shared" ref="G21:K21" si="3">SUM(G16:G20)</f>
         <v>96</v>
@@ -5399,13 +5399,13 @@
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="L21" s="53"/>
+      <c r="L21" s="60"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="54">
         <v>22116101224</v>
       </c>
       <c r="C22" s="41" t="s">
@@ -5420,7 +5420,7 @@
       <c r="F22" s="42">
         <v>19</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="57" t="s">
         <v>58</v>
       </c>
       <c r="H22" s="42">
@@ -5435,14 +5435,14 @@
       <c r="K22" s="42">
         <v>19</v>
       </c>
-      <c r="L22" s="53">
+      <c r="L22" s="60">
         <f>AVERAGE(D27:K27)</f>
         <v>94.571428571428569</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="41" t="s">
         <v>158</v>
       </c>
@@ -5455,7 +5455,7 @@
       <c r="F23" s="41">
         <v>18</v>
       </c>
-      <c r="G23" s="51"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="41">
         <v>17</v>
       </c>
@@ -5468,11 +5468,11 @@
       <c r="K23" s="41">
         <v>18</v>
       </c>
-      <c r="L23" s="53"/>
+      <c r="L23" s="60"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="41" t="s">
         <v>163</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="F24" s="41">
         <v>19</v>
       </c>
-      <c r="G24" s="51"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="41">
         <v>20</v>
       </c>
@@ -5498,11 +5498,11 @@
       <c r="K24" s="41">
         <v>19</v>
       </c>
-      <c r="L24" s="53"/>
+      <c r="L24" s="60"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="41" t="s">
         <v>160</v>
       </c>
@@ -5515,7 +5515,7 @@
       <c r="F25" s="41">
         <v>28</v>
       </c>
-      <c r="G25" s="51"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="41">
         <v>28</v>
       </c>
@@ -5528,11 +5528,11 @@
       <c r="K25" s="41">
         <v>28</v>
       </c>
-      <c r="L25" s="53"/>
+      <c r="L25" s="60"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="41" t="s">
         <v>161</v>
       </c>
@@ -5545,7 +5545,7 @@
       <c r="F26" s="41">
         <v>9</v>
       </c>
-      <c r="G26" s="51"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="41">
         <v>10</v>
       </c>
@@ -5558,11 +5558,11 @@
       <c r="K26" s="41">
         <v>9</v>
       </c>
-      <c r="L26" s="53"/>
+      <c r="L26" s="60"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="41" t="s">
         <v>162</v>
       </c>
@@ -5578,7 +5578,7 @@
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="59"/>
       <c r="H27" s="41">
         <f t="shared" ref="H27:K27" si="5">SUM(H22:H26)</f>
         <v>95</v>
@@ -5595,13 +5595,13 @@
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="L27" s="53"/>
+      <c r="L27" s="60"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="54">
         <v>22116101267</v>
       </c>
       <c r="C28" s="41" t="s">
@@ -5619,7 +5619,7 @@
       <c r="G28" s="42">
         <v>19</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="57" t="s">
         <v>58</v>
       </c>
       <c r="I28" s="42">
@@ -5631,14 +5631,14 @@
       <c r="K28" s="42">
         <v>20</v>
       </c>
-      <c r="L28" s="53">
+      <c r="L28" s="60">
         <f>AVERAGE(D33:K33)</f>
         <v>94.571428571428569</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="41" t="s">
         <v>158</v>
       </c>
@@ -5654,7 +5654,7 @@
       <c r="G29" s="41">
         <v>18</v>
       </c>
-      <c r="H29" s="51"/>
+      <c r="H29" s="58"/>
       <c r="I29" s="41">
         <v>17</v>
       </c>
@@ -5664,11 +5664,11 @@
       <c r="K29" s="41">
         <v>18</v>
       </c>
-      <c r="L29" s="53"/>
+      <c r="L29" s="60"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="41" t="s">
         <v>163</v>
       </c>
@@ -5684,7 +5684,7 @@
       <c r="G30" s="41">
         <v>19</v>
       </c>
-      <c r="H30" s="51"/>
+      <c r="H30" s="58"/>
       <c r="I30" s="41">
         <v>20</v>
       </c>
@@ -5694,11 +5694,11 @@
       <c r="K30" s="41">
         <v>20</v>
       </c>
-      <c r="L30" s="53"/>
+      <c r="L30" s="60"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="41" t="s">
         <v>160</v>
       </c>
@@ -5714,7 +5714,7 @@
       <c r="G31" s="41">
         <v>28</v>
       </c>
-      <c r="H31" s="51"/>
+      <c r="H31" s="58"/>
       <c r="I31" s="41">
         <v>27</v>
       </c>
@@ -5724,11 +5724,11 @@
       <c r="K31" s="41">
         <v>28</v>
       </c>
-      <c r="L31" s="53"/>
+      <c r="L31" s="60"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="41" t="s">
         <v>161</v>
       </c>
@@ -5744,7 +5744,7 @@
       <c r="G32" s="41">
         <v>9</v>
       </c>
-      <c r="H32" s="51"/>
+      <c r="H32" s="58"/>
       <c r="I32" s="41">
         <v>10</v>
       </c>
@@ -5754,11 +5754,11 @@
       <c r="K32" s="41">
         <v>10</v>
       </c>
-      <c r="L32" s="53"/>
+      <c r="L32" s="60"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="41" t="s">
         <v>162</v>
       </c>
@@ -5778,7 +5778,7 @@
         <f t="shared" si="6"/>
         <v>93</v>
       </c>
-      <c r="H33" s="52"/>
+      <c r="H33" s="59"/>
       <c r="I33" s="41">
         <f t="shared" ref="I33:K33" si="7">SUM(I28:I32)</f>
         <v>94</v>
@@ -5791,13 +5791,13 @@
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="L33" s="53"/>
+      <c r="L33" s="60"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="49">
+      <c r="B34" s="54">
         <v>22116101275</v>
       </c>
       <c r="C34" s="41" t="s">
@@ -5818,7 +5818,7 @@
       <c r="H34" s="42">
         <v>18</v>
       </c>
-      <c r="I34" s="50" t="s">
+      <c r="I34" s="57" t="s">
         <v>58</v>
       </c>
       <c r="J34" s="42">
@@ -5827,14 +5827,14 @@
       <c r="K34" s="42">
         <v>19</v>
       </c>
-      <c r="L34" s="53">
+      <c r="L34" s="60">
         <f>AVERAGE(D39:K39)</f>
         <v>94.571428571428569</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="41" t="s">
         <v>158</v>
       </c>
@@ -5853,18 +5853,18 @@
       <c r="H35" s="41">
         <v>20</v>
       </c>
-      <c r="I35" s="51"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="41">
         <v>17</v>
       </c>
       <c r="K35" s="41">
         <v>19</v>
       </c>
-      <c r="L35" s="53"/>
+      <c r="L35" s="60"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="41" t="s">
         <v>163</v>
       </c>
@@ -5883,18 +5883,18 @@
       <c r="H36" s="41">
         <v>18</v>
       </c>
-      <c r="I36" s="51"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="41">
         <v>20</v>
       </c>
       <c r="K36" s="41">
         <v>19</v>
       </c>
-      <c r="L36" s="53"/>
+      <c r="L36" s="60"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="41" t="s">
         <v>160</v>
       </c>
@@ -5913,18 +5913,18 @@
       <c r="H37" s="41">
         <v>30</v>
       </c>
-      <c r="I37" s="51"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="41">
         <v>29</v>
       </c>
       <c r="K37" s="41">
         <v>29</v>
       </c>
-      <c r="L37" s="53"/>
+      <c r="L37" s="60"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="41" t="s">
         <v>161</v>
       </c>
@@ -5943,18 +5943,18 @@
       <c r="H38" s="41">
         <v>9</v>
       </c>
-      <c r="I38" s="51"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="41">
         <v>10</v>
       </c>
       <c r="K38" s="41">
         <v>9</v>
       </c>
-      <c r="L38" s="53"/>
+      <c r="L38" s="60"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="41" t="s">
         <v>162</v>
       </c>
@@ -5978,7 +5978,7 @@
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
-      <c r="I39" s="52"/>
+      <c r="I39" s="59"/>
       <c r="J39" s="41">
         <f t="shared" ref="J39:K39" si="9">SUM(J34:J38)</f>
         <v>96</v>
@@ -5987,13 +5987,13 @@
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="L39" s="53"/>
+      <c r="L39" s="60"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="49">
+      <c r="B40" s="54">
         <v>22116101244</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -6017,20 +6017,20 @@
       <c r="I40" s="42">
         <v>18</v>
       </c>
-      <c r="J40" s="50" t="s">
+      <c r="J40" s="57" t="s">
         <v>58</v>
       </c>
       <c r="K40" s="42">
         <v>20</v>
       </c>
-      <c r="L40" s="53">
+      <c r="L40" s="60">
         <f>AVERAGE(D45:K45)</f>
         <v>94.571428571428569</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="41" t="s">
         <v>158</v>
       </c>
@@ -6052,15 +6052,15 @@
       <c r="I41" s="41">
         <v>20</v>
       </c>
-      <c r="J41" s="51"/>
+      <c r="J41" s="58"/>
       <c r="K41" s="41">
         <v>17</v>
       </c>
-      <c r="L41" s="53"/>
+      <c r="L41" s="60"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="41" t="s">
         <v>163</v>
       </c>
@@ -6082,15 +6082,15 @@
       <c r="I42" s="41">
         <v>18</v>
       </c>
-      <c r="J42" s="51"/>
+      <c r="J42" s="58"/>
       <c r="K42" s="41">
         <v>20</v>
       </c>
-      <c r="L42" s="53"/>
+      <c r="L42" s="60"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="41" t="s">
         <v>160</v>
       </c>
@@ -6112,15 +6112,15 @@
       <c r="I43" s="41">
         <v>30</v>
       </c>
-      <c r="J43" s="51"/>
+      <c r="J43" s="58"/>
       <c r="K43" s="41">
         <v>28</v>
       </c>
-      <c r="L43" s="53"/>
+      <c r="L43" s="60"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="41" t="s">
         <v>161</v>
       </c>
@@ -6142,15 +6142,15 @@
       <c r="I44" s="41">
         <v>8</v>
       </c>
-      <c r="J44" s="51"/>
+      <c r="J44" s="58"/>
       <c r="K44" s="41">
         <v>10</v>
       </c>
-      <c r="L44" s="53"/>
+      <c r="L44" s="60"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="41" t="s">
         <v>162</v>
       </c>
@@ -6178,18 +6178,18 @@
         <f t="shared" si="11"/>
         <v>94</v>
       </c>
-      <c r="J45" s="52"/>
+      <c r="J45" s="59"/>
       <c r="K45" s="41">
         <f t="shared" ref="K45" si="12">SUM(K40:K44)</f>
         <v>95</v>
       </c>
-      <c r="L45" s="53"/>
+      <c r="L45" s="60"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="54">
         <v>22116101232</v>
       </c>
       <c r="C46" s="41" t="s">
@@ -6216,17 +6216,17 @@
       <c r="J46" s="42">
         <v>19</v>
       </c>
-      <c r="K46" s="50" t="s">
+      <c r="K46" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="L46" s="53">
+      <c r="L46" s="60">
         <f>AVERAGE(D51:K51)</f>
         <v>94.714285714285708</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="41" t="s">
         <v>158</v>
       </c>
@@ -6251,12 +6251,12 @@
       <c r="J47" s="41">
         <v>18</v>
       </c>
-      <c r="K47" s="51"/>
-      <c r="L47" s="53"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="60"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="41" t="s">
         <v>163</v>
       </c>
@@ -6281,12 +6281,12 @@
       <c r="J48" s="41">
         <v>20</v>
       </c>
-      <c r="K48" s="51"/>
-      <c r="L48" s="53"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="60"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="41" t="s">
         <v>160</v>
       </c>
@@ -6311,12 +6311,12 @@
       <c r="J49" s="41">
         <v>28</v>
       </c>
-      <c r="K49" s="51"/>
-      <c r="L49" s="53"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="60"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="41" t="s">
         <v>161</v>
       </c>
@@ -6341,12 +6341,12 @@
       <c r="J50" s="41">
         <v>9</v>
       </c>
-      <c r="K50" s="51"/>
-      <c r="L50" s="53"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="60"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="41" t="s">
         <v>162</v>
       </c>
@@ -6378,8 +6378,8 @@
         <f t="shared" si="13"/>
         <v>94</v>
       </c>
-      <c r="K51" s="52"/>
-      <c r="L51" s="53"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="60"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="44"/>
@@ -6551,29 +6551,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="L4:L9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="L10:L15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="L28:L33"/>
     <mergeCell ref="A46:A51"/>
     <mergeCell ref="B46:B51"/>
     <mergeCell ref="K46:K51"/>
@@ -6586,6 +6563,29 @@
     <mergeCell ref="B40:B45"/>
     <mergeCell ref="J40:J45"/>
     <mergeCell ref="L40:L45"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="L28:L33"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="L4:L9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.43263888888888902" right="0.118055555555556" top="0.35416666666666702" bottom="0.196527777777778" header="0.51180555555555596" footer="0.5"/>
